--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\eclipse-workspace\com.javaPractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DAA0C-85A9-4DF3-B99C-0019A7FBEAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC65A4-55AF-42A6-9DC2-C8D0E0E1FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>TC_ID</t>
   </si>
@@ -240,40 +240,37 @@
     <t>9998063668</t>
   </si>
   <si>
-    <t>28/02/2024 15:55:44</t>
+    <t>17:4:23</t>
+  </si>
+  <si>
+    <t>28/02/2024 18:00:24</t>
   </si>
   <si>
     <t>380.00</t>
   </si>
   <si>
-    <t>17:48:13</t>
-  </si>
-  <si>
-    <t>28/02/2024 17:16:28</t>
-  </si>
-  <si>
-    <t>7:39:34</t>
+    <t>6:55:43</t>
   </si>
   <si>
     <t>280.00</t>
   </si>
   <si>
-    <t>23:25:18</t>
+    <t>22:41:27</t>
   </si>
   <si>
     <t>880.00</t>
   </si>
   <si>
-    <t>17:22:23</t>
-  </si>
-  <si>
-    <t>23:48:13</t>
+    <t>16:38:33</t>
+  </si>
+  <si>
+    <t>23:4:23</t>
   </si>
   <si>
     <t>350.00</t>
   </si>
   <si>
-    <t>1:54:22</t>
+    <t>1:10:32</t>
   </si>
   <si>
     <t>130.00</t>
@@ -840,13 +837,13 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -860,13 +857,13 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -880,13 +877,13 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -900,16 +897,16 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -923,13 +920,13 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -3,27 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\eclipse-workspace\com.javaPractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC65A4-55AF-42A6-9DC2-C8D0E0E1FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F0B60-8BBF-4CC7-91B8-3E14775DE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCL1" sheetId="10" r:id="rId1"/>
-    <sheet name="CCL" sheetId="7" r:id="rId2"/>
-    <sheet name="Organizations" sheetId="1" r:id="rId3"/>
-    <sheet name="Products" sheetId="3" r:id="rId4"/>
-    <sheet name="MultipleOrg" sheetId="5" r:id="rId5"/>
-    <sheet name="Vendors" sheetId="4" r:id="rId6"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId7"/>
+    <sheet name="CCL" sheetId="16" r:id="rId1"/>
+    <sheet name="CCL1" sheetId="17" r:id="rId2"/>
+    <sheet name="CCL1(New)" sheetId="18" r:id="rId3"/>
+    <sheet name="CCL(New)" sheetId="15" r:id="rId4"/>
+    <sheet name="Organizations" sheetId="1" r:id="rId5"/>
+    <sheet name="Products" sheetId="3" r:id="rId6"/>
+    <sheet name="MultipleOrg" sheetId="5" r:id="rId7"/>
+    <sheet name="Vendors" sheetId="4" r:id="rId8"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="317">
   <si>
     <t>TC_ID</t>
   </si>
@@ -192,9 +195,6 @@
     <t>CreateOrganizationWithIndustryTypeAndTypeTest</t>
   </si>
   <si>
-    <t>Sr. No</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -240,48 +240,1030 @@
     <t>9998063668</t>
   </si>
   <si>
-    <t>17:4:23</t>
-  </si>
-  <si>
-    <t>28/02/2024 18:00:24</t>
-  </si>
-  <si>
-    <t>380.00</t>
-  </si>
-  <si>
-    <t>6:55:43</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>22:41:27</t>
-  </si>
-  <si>
-    <t>880.00</t>
-  </si>
-  <si>
-    <t>16:38:33</t>
-  </si>
-  <si>
-    <t>23:4:23</t>
+    <t>Premium Paid Years</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Premium Payable Years</t>
+  </si>
+  <si>
+    <t>Bhavu113</t>
+  </si>
+  <si>
+    <t>9638891313</t>
+  </si>
+  <si>
+    <t>Gsdlmg@1997</t>
+  </si>
+  <si>
+    <t>7600915442</t>
+  </si>
+  <si>
+    <t>Tinu@2024</t>
+  </si>
+  <si>
+    <t>8866214990</t>
+  </si>
+  <si>
+    <t>CCL ID</t>
+  </si>
+  <si>
+    <t>9426835092</t>
+  </si>
+  <si>
+    <t>sonal@123</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>502346</t>
+  </si>
+  <si>
+    <t>524880</t>
+  </si>
+  <si>
+    <t>522609</t>
+  </si>
+  <si>
+    <t>455655</t>
+  </si>
+  <si>
+    <t>523121</t>
+  </si>
+  <si>
+    <t>552644</t>
+  </si>
+  <si>
+    <t>570046</t>
+  </si>
+  <si>
+    <t>573406</t>
+  </si>
+  <si>
+    <t>523060</t>
+  </si>
+  <si>
+    <t>Krishna@1703</t>
+  </si>
+  <si>
+    <t>9662260695</t>
+  </si>
+  <si>
+    <t>9428777375</t>
+  </si>
+  <si>
+    <t>539870</t>
+  </si>
+  <si>
+    <t>kathan123</t>
+  </si>
+  <si>
+    <t>551843</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+Till Now
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Total Expected
+Income
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get Income
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Today's
+Expected
+Income
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Today's
+Actual
+Income
+(All Projects)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-1)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get Income
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-3)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-2)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get Income
+(Project-4)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get Income
+(Project-5)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Total
+Remaining
+Income
+(Project-10)</t>
+  </si>
+  <si>
+    <t>Total
+Income
+Till Now
+(Project-10)</t>
+  </si>
+  <si>
+    <t>Daily
+Income
+(Project-10)</t>
+  </si>
+  <si>
+    <t>Total
+Expected
+Income
+(Project-10)</t>
+  </si>
+  <si>
+    <t>Total
+Investment
+(Project-10)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-6)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-7)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-8)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-9)</t>
+  </si>
+  <si>
+    <t>Countdown
+To Get
+Income
+(Project-10)</t>
+  </si>
+  <si>
+    <t>0:55:25</t>
+  </si>
+  <si>
+    <t>8:30:38</t>
+  </si>
+  <si>
+    <t>8:40:35</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>06/03/2024
+11:58:11</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>0:55:40</t>
+  </si>
+  <si>
+    <t>8:30:57</t>
+  </si>
+  <si>
+    <t>1,940.00</t>
+  </si>
+  <si>
+    <t>19:30:51</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>0:55:2</t>
+  </si>
+  <si>
+    <t>21:30:3</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>1,530.00</t>
+  </si>
+  <si>
+    <t>0:0:0</t>
   </si>
   <si>
     <t>350.00</t>
   </si>
   <si>
-    <t>1:10:32</t>
-  </si>
-  <si>
-    <t>130.00</t>
+    <t>1,460.00</t>
+  </si>
+  <si>
+    <t>13:20:23</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>8:15:3</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>21:46:3</t>
+  </si>
+  <si>
+    <t>22:26:1</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>0:55:35</t>
+  </si>
+  <si>
+    <t>8:29:36</t>
+  </si>
+  <si>
+    <t>19:30:57</t>
+  </si>
+  <si>
+    <t>2:52:32</t>
+  </si>
+  <si>
+    <t>1,930.00</t>
+  </si>
+  <si>
+    <t>1000.0 
+22-02-2024
+17:08:12</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>4500.0 
+22-05-2024
+17:08:12</t>
+  </si>
+  <si>
+    <t>3950.0</t>
+  </si>
+  <si>
+    <t>0:28:13</t>
+  </si>
+  <si>
+    <t>500.0 
+01-03-2024
+20:14:29</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>1500.0 
+31-03-2024
+20:14:29</t>
+  </si>
+  <si>
+    <t>1300.0</t>
+  </si>
+  <si>
+    <t>8:3:25</t>
+  </si>
+  <si>
+    <t>1000.0 
+03-03-2024
+20:38:48</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+02-04-2024
+20:38:48</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>8:13:21</t>
+  </si>
+  <si>
+    <t>400.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>9000.0</t>
+  </si>
+  <si>
+    <t>950.0</t>
+  </si>
+  <si>
+    <t>8050.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+28-02-2024
+10:39:37</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>9000.0 
+29-03-2024
+10:39:37</t>
+  </si>
+  <si>
+    <t>7200.0</t>
+  </si>
+  <si>
+    <t>0:28:27</t>
+  </si>
+  <si>
+    <t>3000.0 
+17-02-2024
+10:55:35</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>2550.0</t>
+  </si>
+  <si>
+    <t>18000.0 
+16-06-2024
+10:55:35</t>
+  </si>
+  <si>
+    <t>15450.0</t>
+  </si>
+  <si>
+    <t>8:3:43</t>
+  </si>
+  <si>
+    <t>1,940.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>6000.0</t>
+  </si>
+  <si>
+    <t>27000.0</t>
+  </si>
+  <si>
+    <t>4350.0</t>
+  </si>
+  <si>
+    <t>22650.0</t>
+  </si>
+  <si>
+    <t>1000.0 
+02-03-2024
+22:06:35</t>
+  </si>
+  <si>
+    <t>3000.0 
+01-04-2024
+22:06:35</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>19:3:37</t>
+  </si>
+  <si>
+    <t>430.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+02-03-2024
+12:41:14</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>9000.0 
+01-04-2024
+12:41:14</t>
+  </si>
+  <si>
+    <t>8100.0</t>
+  </si>
+  <si>
+    <t>0:27:48</t>
+  </si>
+  <si>
+    <t>1000.0 
+24-02-2024
+16:23:51</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>4500.0 
+24-05-2024
+16:23:51</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>21:2:48</t>
+  </si>
+  <si>
+    <t>1,530.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>13500.0</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>12100.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+24-02-2024
+10:10:25</t>
+  </si>
+  <si>
+    <t>1650.0</t>
+  </si>
+  <si>
+    <t>18000.0 
+23-06-2024
+10:10:25</t>
+  </si>
+  <si>
+    <t>16350.0</t>
+  </si>
+  <si>
+    <t>23:32:43</t>
+  </si>
+  <si>
+    <t>1000.0 
+28-02-2024
+11:14:40</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+29-03-2024
+11:14:40</t>
+  </si>
+  <si>
+    <t>2300.0</t>
+  </si>
+  <si>
+    <t>23:32:42</t>
+  </si>
+  <si>
+    <t>1000.0 
+03-03-2024
+11:50:32</t>
+  </si>
+  <si>
+    <t>3000.0 
+02-04-2024
+11:50:32</t>
+  </si>
+  <si>
+    <t>23:32:41</t>
+  </si>
+  <si>
+    <t>1,460.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>24000.0</t>
+  </si>
+  <si>
+    <t>2650.0</t>
+  </si>
+  <si>
+    <t>21350.0</t>
+  </si>
+  <si>
+    <t>1000.0 
+23-02-2024
+19:00:02</t>
+  </si>
+  <si>
+    <t>4500.0 
+23-05-2024
+19:00:02</t>
+  </si>
+  <si>
+    <t>4050.0</t>
+  </si>
+  <si>
+    <t>12:53:3</t>
+  </si>
+  <si>
+    <t>480.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>1000.0 
+29-02-2024
+14:01:38</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>3000.0 
+30-03-2024
+14:01:38</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>7:47:42</t>
+  </si>
+  <si>
+    <t>530.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>1000.0 
+03-03-2024
+08:39:30</t>
+  </si>
+  <si>
+    <t>3000.0 
+02-04-2024
+08:39:30</t>
+  </si>
+  <si>
+    <t>21:18:41</t>
+  </si>
+  <si>
+    <t>1000.0 
+02-03-2024
+08:44:14</t>
+  </si>
+  <si>
+    <t>3000.0 
+01-04-2024
+08:44:14</t>
+  </si>
+  <si>
+    <t>21:58:39</t>
+  </si>
+  <si>
+    <t>0.00 
+06/03/2024
+12:25:27</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>5300.0</t>
+  </si>
+  <si>
+    <t>1000.0 
+01-03-2024
+12:47:55</t>
+  </si>
+  <si>
+    <t>3000.0 
+31-03-2024
+12:47:55</t>
+  </si>
+  <si>
+    <t>0:28:12</t>
+  </si>
+  <si>
+    <t>3000.0 
+23-02-2024
+14:39:11</t>
+  </si>
+  <si>
+    <t>18000.0 
+22-06-2024
+14:39:11</t>
+  </si>
+  <si>
+    <t>8:2:13</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>21000.0</t>
+  </si>
+  <si>
+    <t>2050.0</t>
+  </si>
+  <si>
+    <t>18950.0</t>
+  </si>
+  <si>
+    <t>1000.0 
+02-03-2024
+22:28:41</t>
+  </si>
+  <si>
+    <t>3000.0 
+01-04-2024
+22:28:41</t>
+  </si>
+  <si>
+    <t>19:3:34</t>
+  </si>
+  <si>
+    <t>500.0 
+28-02-2024
+10:19:18</t>
+  </si>
+  <si>
+    <t>1500.0 
+29-03-2024
+10:19:18</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>2:25:9</t>
+  </si>
+  <si>
+    <t>2500.0 
+28-02-2024
+10:19:49</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>7500.0 
+29-03-2024
+10:19:49</t>
+  </si>
+  <si>
+    <t>2:25:8</t>
+  </si>
+  <si>
+    <t>1,930.00 
+06/03/2024
+12:25:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +1279,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +1324,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -363,62 +1400,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -434,69 +1415,69 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,232 +1759,1644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16155271-53EB-4BC6-AA4D-EC3FE7660987}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E51CC1-723C-4700-ACBF-3B09742C0E62}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
-    <col min="6" max="10" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B11" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6399F74-A77D-4D42-9787-8A10814C195D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38157EB-F352-4B09-B39C-1FA4A0B9466B}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825EF41-8A2F-4F04-B028-E51D9F76A63E}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="D5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
+      <c r="D10" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CF6D1-9EB8-4550-A3AF-A27398B84424}">
+  <dimension ref="A1:BR12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="33" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="39" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="45" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="51" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="57" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="63" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="70" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+    </row>
+    <row r="4" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="8" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+    </row>
+    <row r="9" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+    </row>
+    <row r="11" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+    </row>
+    <row r="12" spans="1:70" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B04782E-8B79-4FB3-8561-9CA67FD00A9D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -1013,10 +3406,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1142,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580AD14F-8CE1-4DA4-A8FF-5D36CED868C4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1152,7 +3545,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="3" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA2BAB6-E56F-4BDC-B87C-96ACA08AB470}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1192,8 +3585,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +3682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8AC825-AE12-4CB1-A7C5-96FCA3C07756}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1299,7 +3692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1329,7 +3722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C91EA5-42CF-4C02-A7D4-D65CAF45BDB3}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1339,10 +3732,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\eclipse-workspace\com.javaPractice\src\test\resources\"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="352">
   <si>
     <t>TC_ID</t>
   </si>
@@ -1257,12 +1257,118 @@
     <t>1,930.00 
 06/03/2024
 12:25:27</t>
+  </si>
+  <si>
+    <t>7:15:41</t>
+  </si>
+  <si>
+    <t>7:25:39</t>
+  </si>
+  <si>
+    <t>23:46:14</t>
+  </si>
+  <si>
+    <t>7:16:7</t>
+  </si>
+  <si>
+    <t>23:46:20</t>
+  </si>
+  <si>
+    <t>18:16:7</t>
+  </si>
+  <si>
+    <t>20:15:24</t>
+  </si>
+  <si>
+    <t>23:46:32</t>
+  </si>
+  <si>
+    <t>22:45:27</t>
+  </si>
+  <si>
+    <t>12:5:55</t>
+  </si>
+  <si>
+    <t>7:0:40</t>
+  </si>
+  <si>
+    <t>20:31:45</t>
+  </si>
+  <si>
+    <t>21:11:44</t>
+  </si>
+  <si>
+    <t>7:15:24</t>
+  </si>
+  <si>
+    <t>23:46:59</t>
+  </si>
+  <si>
+    <t>18:16:50</t>
+  </si>
+  <si>
+    <t>1:38:31</t>
+  </si>
+  <si>
+    <t>1:38:30</t>
+  </si>
+  <si>
+    <t>7:7:40</t>
+  </si>
+  <si>
+    <t>7:17:37</t>
+  </si>
+  <si>
+    <t>23:38:13</t>
+  </si>
+  <si>
+    <t>7:8:4</t>
+  </si>
+  <si>
+    <t>23:38:18</t>
+  </si>
+  <si>
+    <t>18:8:4</t>
+  </si>
+  <si>
+    <t>20:7:20</t>
+  </si>
+  <si>
+    <t>23:38:28</t>
+  </si>
+  <si>
+    <t>22:37:23</t>
+  </si>
+  <si>
+    <t>11:57:51</t>
+  </si>
+  <si>
+    <t>6:52:36</t>
+  </si>
+  <si>
+    <t>20:23:42</t>
+  </si>
+  <si>
+    <t>21:3:40</t>
+  </si>
+  <si>
+    <t>7:7:21</t>
+  </si>
+  <si>
+    <t>23:38:56</t>
+  </si>
+  <si>
+    <t>18:8:47</t>
+  </si>
+  <si>
+    <t>1:30:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1422,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1479,6 +1585,126 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1768,8 +1994,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1883,8 +2109,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,14 +2159,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="16" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1993,7 +2221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A2" s="21" t="s">
         <v>82</v>
       </c>
@@ -2012,19 +2240,19 @@
       <c r="F2" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>165</v>
+      <c r="G2" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>337</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A3" s="21" t="s">
         <v>85</v>
       </c>
@@ -2043,17 +2271,17 @@
       <c r="F3" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>170</v>
+      <c r="G3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>339</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A4" s="21" t="s">
         <v>89</v>
       </c>
@@ -2072,14 +2300,14 @@
       <c r="F4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>172</v>
+      <c r="G4" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A5" s="21" t="s">
         <v>83</v>
       </c>
@@ -2098,17 +2326,17 @@
       <c r="F5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>176</v>
+      <c r="G5" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>342</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A6" s="21" t="s">
         <v>90</v>
       </c>
@@ -2127,19 +2355,19 @@
       <c r="F6" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>179</v>
+      <c r="G6" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>343</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A7" s="21" t="s">
         <v>86</v>
       </c>
@@ -2158,14 +2386,14 @@
       <c r="F7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>182</v>
+      <c r="G7" s="54" t="s">
+        <v>344</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A8" s="21" t="s">
         <v>96</v>
       </c>
@@ -2184,15 +2412,15 @@
       <c r="F8" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>184</v>
+      <c r="G8" s="55" t="s">
+        <v>345</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A9" s="21" t="s">
         <v>87</v>
       </c>
@@ -2211,17 +2439,17 @@
       <c r="F9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>187</v>
+      <c r="G9" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>347</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A10" s="21" t="s">
         <v>84</v>
       </c>
@@ -2240,14 +2468,14 @@
       <c r="F10" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A11" s="21" t="s">
         <v>88</v>
       </c>
@@ -2266,11 +2494,11 @@
       <c r="F11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="60" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A12" s="21" t="s">
         <v>94</v>
       </c>
@@ -2289,11 +2517,11 @@
       <c r="F12" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>192</v>
+      <c r="G12" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2311,47 +2539,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="33" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="39" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="45" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="51" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="57" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="63" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="70" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="10" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="30" max="33" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="36" max="39" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="42" max="45" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="48" max="51" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="54" max="57" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="60" max="63" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="65" max="70" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3371,8 +3599,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3406,10 +3634,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3545,7 +3773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3585,8 +3813,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3692,7 +3920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3732,10 +3960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
